--- a/VerveStacks_USA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
+++ b/VerveStacks_USA_grids/SuppXLS/scen_tsparameters_ts_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_USA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE1F043-3535-4EEA-9E3C-63D415E37B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0CA43D0-6465-4DA4-8412-5681CAB563AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -345,10 +345,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>RaD,SaD,WaD,FaD,RaP,FaP,SaP,WaP</t>
-  </si>
-  <si>
-    <t>FaP,SaP,RaP,SaN,WaN,WaP,FaN,RaN</t>
+    <t>SaD,FaD,FaP,SaP,RaD,WaP,WaD,RaP</t>
+  </si>
+  <si>
+    <t>FaP,SaP,SaN,WaN,RaP,FaN,WaP,RaN</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -920,7 +920,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>FaP,SaP,RaP,SaN,WaN,WaP,FaN,RaN</v>
+        <v>FaP,SaP,SaN,WaN,RaP,FaN,WaP,RaN</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -952,7 +952,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>RaD,SaD,WaD,FaD,RaP,FaP,SaP,WaP</v>
+        <v>SaD,FaD,FaP,SaP,RaD,WaP,WaD,RaP</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1565,7 +1565,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945F67F7-DC5D-464E-995F-BAA0E693D87A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FE8BE75-9DF9-48F0-8705-696C467D94DC}">
   <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1644,7 +1644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D43887D2-E4EE-46E1-B0A0-D0594EB64151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C719A4B-CAB7-4BFD-93D4-8B2EB6A1DCB0}">
   <dimension ref="B2:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1723,10 +1723,10 @@
         <v>97</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N4">
-        <v>0.32393850623566828</v>
+        <v>0.33967157689050581</v>
       </c>
       <c r="O4" t="s">
         <v>108</v>
@@ -1758,10 +1758,10 @@
         <v>97</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N5">
-        <v>0.33967157689050581</v>
+        <v>0.298224509767687</v>
       </c>
       <c r="O5" t="s">
         <v>108</v>
@@ -1793,10 +1793,10 @@
         <v>97</v>
       </c>
       <c r="M6" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N6">
-        <v>0.298224509767687</v>
+        <v>0.32393850623566828</v>
       </c>
       <c r="O6" t="s">
         <v>108</v>
@@ -2051,7 +2051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20993790-C19A-4126-A6DF-3176D63F6D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91B16CE2-CC3B-4DA9-A181-CB114205596E}">
   <dimension ref="B2:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
